--- a/database/seeders/excel/category.xlsx
+++ b/database/seeders/excel/category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C7970-733D-42E8-B187-9801910F9110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305A844-FEB8-4020-8814-12D23711B092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12348" yWindow="2256" windowWidth="16452" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A194" authorId="0" shapeId="0" xr:uid="{51366005-D897-48C7-8C2B-B57573AFAAE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cover offline 3 Modul Utama</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="249">
   <si>
     <t>MODUL FORENSIK (FOR)</t>
   </si>
@@ -176,13 +210,604 @@
   </si>
   <si>
     <t>MY DIGITAL ID</t>
+  </si>
+  <si>
+    <t>INFRASTRUKTUR</t>
+  </si>
+  <si>
+    <t>NICC</t>
+  </si>
+  <si>
+    <t>PERALATAN</t>
+  </si>
+  <si>
+    <t>VIDEO MANAGEMENT SYSTEM FOR CCTV</t>
+  </si>
+  <si>
+    <t>KOMPUTER DESKTOP (DUAL MONITOR)</t>
+  </si>
+  <si>
+    <t>KOMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>SISTEM ADUAN &amp; ALATAN TELEFONIS / UNIFIED TELECOMMUNICATION</t>
+  </si>
+  <si>
+    <t>SET TELEFONIS (COMMAND CENTER)</t>
+  </si>
+  <si>
+    <t>VIDEO WALL SYSTEM</t>
+  </si>
+  <si>
+    <t>INTERACTIVE SMARTBOARD</t>
+  </si>
+  <si>
+    <t>VIDEO CONFERENCE SYSTEM</t>
+  </si>
+  <si>
+    <t>SET TELEFON</t>
+  </si>
+  <si>
+    <t>PROJEKTOR</t>
+  </si>
+  <si>
+    <t>LED DISPLAY MONITOR (FOR SIGNAGE AND DISPLAY)</t>
+  </si>
+  <si>
+    <t>PERKAKASAN</t>
+  </si>
+  <si>
+    <t>PERABOT RUANG KERJA</t>
+  </si>
+  <si>
+    <t>LOCKER 15 COMPARTMENT</t>
+  </si>
+  <si>
+    <t>LOCKER 20 COMPARTMENT</t>
+  </si>
+  <si>
+    <t>LOCKER 10 COMPARTMENT</t>
+  </si>
+  <si>
+    <t>SPLIT AIRCOND 1.5HP</t>
+  </si>
+  <si>
+    <t>LOCKER 7 COMPARTMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERABOT DAN AUDIO/PA SYSTEM </t>
+  </si>
+  <si>
+    <t>MEJA &amp; KERUSI (MINIMUM 12 ORANG)</t>
+  </si>
+  <si>
+    <t>KAUNTER/MEJA PENYAMBUT TETAMU</t>
+  </si>
+  <si>
+    <t>EXECUTIVE SOFA SETTEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELENGKAPAN BILIK MESYUARAT </t>
+  </si>
+  <si>
+    <t>KELENGKAPAN BILIK PEGAWAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJA DAN KERUSI BAGI BILIK/ RUANG SERBAGUNA DI KETIGA-TIGA NICC </t>
+  </si>
+  <si>
+    <t>PERISIAN</t>
+  </si>
+  <si>
+    <t>RANGKAIAN</t>
+  </si>
+  <si>
+    <t>PUSAT DATA (DC &amp; DRC)</t>
+  </si>
+  <si>
+    <t>PERALATAN RANGKAIAN DAN KESELAMATAN</t>
+  </si>
+  <si>
+    <t>PERKAKASAN SERVER, STORAN &amp; BACKUP APPLIANCE</t>
+  </si>
+  <si>
+    <t>Palo Alto Ext Firewall</t>
+  </si>
+  <si>
+    <t>Palo Alto Panorama</t>
+  </si>
+  <si>
+    <t>Fortinet Int. Firewall</t>
+  </si>
+  <si>
+    <t>Fortinet FortiManager</t>
+  </si>
+  <si>
+    <t>Fortinet FortiAnalyzer</t>
+  </si>
+  <si>
+    <t>Infoblox DNS</t>
+  </si>
+  <si>
+    <t>F5 Velos</t>
+  </si>
+  <si>
+    <t>Huawei Switches</t>
+  </si>
+  <si>
+    <t>Huawei iMaster NCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei WLAN </t>
+  </si>
+  <si>
+    <t>Niagara Packet Broker</t>
+  </si>
+  <si>
+    <t>Thales HSM</t>
+  </si>
+  <si>
+    <t>HPE Synergy Frame</t>
+  </si>
+  <si>
+    <t>HPE Synergy Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE Proliant Server   </t>
+  </si>
+  <si>
+    <t>HPE Alletra 9080 Storage</t>
+  </si>
+  <si>
+    <t>HPE Alletra 5050 Storage</t>
+  </si>
+  <si>
+    <t>HPE Alletra MP Storage</t>
+  </si>
+  <si>
+    <t>HPE Scality 4120 Storage Server</t>
+  </si>
+  <si>
+    <t>HPE SN6700B SAN Switch</t>
+  </si>
+  <si>
+    <t>NetBackup Flex Appliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei FusionServer </t>
+  </si>
+  <si>
+    <t>HPE G2 Advanced Series Rack (DRC Kulim)</t>
+  </si>
+  <si>
+    <t>Suse Rancher</t>
+  </si>
+  <si>
+    <t>Ubuntu Linux</t>
+  </si>
+  <si>
+    <t>Oracle Linux</t>
+  </si>
+  <si>
+    <t>RedHat Enterprise Linux</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server Data Center Edition</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server Standard Edition</t>
+  </si>
+  <si>
+    <t>VMware Cloud Foundation</t>
+  </si>
+  <si>
+    <t>HPE Zerto</t>
+  </si>
+  <si>
+    <t>Oracle Database Enterprise Edition</t>
+  </si>
+  <si>
+    <t>Oracle Diagnostic Pack</t>
+  </si>
+  <si>
+    <t>Oracle Tuning Pack</t>
+  </si>
+  <si>
+    <t>Oracle Multitenant</t>
+  </si>
+  <si>
+    <t>Oracle Partitioning</t>
+  </si>
+  <si>
+    <t>Oracle Real Application Cluster</t>
+  </si>
+  <si>
+    <t>Oracle Database In-Memory</t>
+  </si>
+  <si>
+    <t>Oracle Compression</t>
+  </si>
+  <si>
+    <t>Oracle Advanced Security</t>
+  </si>
+  <si>
+    <t>Oracle Database Vault</t>
+  </si>
+  <si>
+    <t>Oracle Data Masking and Subsetting Pack</t>
+  </si>
+  <si>
+    <t>Oracle Label Security</t>
+  </si>
+  <si>
+    <t>Oracle Audit Vault Database Firewall</t>
+  </si>
+  <si>
+    <t>Oracle Database Lifecycle Management Pack</t>
+  </si>
+  <si>
+    <t>Oracle GoldenGate</t>
+  </si>
+  <si>
+    <t>Oracle GoldenGate Foundation Suite</t>
+  </si>
+  <si>
+    <t>Oracle Data Integrator Enterprise Edition</t>
+  </si>
+  <si>
+    <t>Oracle Management Pack for Data Integrator</t>
+  </si>
+  <si>
+    <t>Oracle Weblogic Suite</t>
+  </si>
+  <si>
+    <t>Oracle GoldenGate for Mainframe</t>
+  </si>
+  <si>
+    <t>Oracle Key Vault</t>
+  </si>
+  <si>
+    <t>Oracle Enterprise Data Quality Profiiling for Data Integration</t>
+  </si>
+  <si>
+    <t>Oracle Enterprise Data Quality Batch Processing  for Data Integration</t>
+  </si>
+  <si>
+    <t>Oracle Enterprise Data Quality Audit and Dashboard  for Data Integration</t>
+  </si>
+  <si>
+    <t>Oracle Enterprise Data Quality Real-Time Processing  for Data Integration</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server Standard Edition</t>
+  </si>
+  <si>
+    <t>MySQL Enterprise Edition</t>
+  </si>
+  <si>
+    <t>Dynatrace Application Performance Monitoring and Observability</t>
+  </si>
+  <si>
+    <t>ManageEngine OPManager Enterprise Edition</t>
+  </si>
+  <si>
+    <t>ManageEngine Endpoint Desktop Central UEM Edition</t>
+  </si>
+  <si>
+    <t>TREND MICRO Deep Security, Apex One, Vision One EDR/XDR, Vision One Container Security, Mobile Security</t>
+  </si>
+  <si>
+    <t>Tenable.sc Vulnerability Management</t>
+  </si>
+  <si>
+    <t>NetIQ OpenText</t>
+  </si>
+  <si>
+    <t>BMC Control-M</t>
+  </si>
+  <si>
+    <t>Stellar Cyber</t>
+  </si>
+  <si>
+    <t>MiVB/MITEL MiVoice Business</t>
+  </si>
+  <si>
+    <t>MITEL Contact Center/MITEL MiVoice Business</t>
+  </si>
+  <si>
+    <t>MIR (AMC) Call Recording/MITEL MiVoice Business</t>
+  </si>
+  <si>
+    <t>TrixCRM	MITEL/MiVoice Business</t>
+  </si>
+  <si>
+    <t>Call Billing/MITEL MiVoice Business</t>
+  </si>
+  <si>
+    <t>MiCollab/MITEL MiVoice Business</t>
+  </si>
+  <si>
+    <t>MBG/MITEL MiVoice Business</t>
+  </si>
+  <si>
+    <t>COTS - Data AnalyticsorBusiness Intelligence	/Insta BI Suite Foresight</t>
+  </si>
+  <si>
+    <t>COTS - Data Warehouse dan Data Lake/EzData Spotlight BDA Smart Data Gov.</t>
+  </si>
+  <si>
+    <t>COTS - Risk Assessment Engine/Eagle Eye</t>
+  </si>
+  <si>
+    <t>COTS - eDigital Stamping	/Secure-QR</t>
+  </si>
+  <si>
+    <t>COTS - Learning Management System/MoodleLMS</t>
+  </si>
+  <si>
+    <t>Kiosk Management System (KMS) Monitoring</t>
+  </si>
+  <si>
+    <t>eGate Monitoring Software (GMS)</t>
+  </si>
+  <si>
+    <t>MBike eGate Monitoring Software (GMS)</t>
+  </si>
+  <si>
+    <t>Sistem Helpdesk ICT</t>
+  </si>
+  <si>
+    <t>Sistem Pengurusan Aset</t>
+  </si>
+  <si>
+    <t>Chatbot / Livechat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAWANGAN </t>
+  </si>
+  <si>
+    <t>PERALATAN ICT</t>
+  </si>
+  <si>
+    <t>RAK SERVER</t>
+  </si>
+  <si>
+    <t>PERALATAN KOMUNIKASI KRITIKAL (HANDHELD)</t>
+  </si>
+  <si>
+    <t>DISPATCHER GIRN DAN HANDHELD</t>
+  </si>
+  <si>
+    <t>PENCETAK LASER</t>
+  </si>
+  <si>
+    <t>FINGERPRINT SCANNER (LOG IN) – 1 JARI</t>
+  </si>
+  <si>
+    <t>DOCUMENT SCANNER</t>
+  </si>
+  <si>
+    <t>PERALATAN SEMAKAN (TABLET)</t>
+  </si>
+  <si>
+    <t>ADVANCED DOCUMENT READER</t>
+  </si>
+  <si>
+    <t>LED DISPLAY MONITOR (FOR SIGNAGE &amp; DISPLAY)</t>
+  </si>
+  <si>
+    <t>WATCHMAN CLOCK</t>
+  </si>
+  <si>
+    <t>BARCODE READER (1D &amp; 2D)</t>
+  </si>
+  <si>
+    <t>BARCODE PRINTER (1D &amp; 2D)</t>
+  </si>
+  <si>
+    <t>PENCETAK IKAD (BUILT IN DECODER)</t>
+  </si>
+  <si>
+    <t>MYKAD READER/ MYKID READER</t>
+  </si>
+  <si>
+    <t>ADVANCED QUEUE MANAGEMENT SYSTEM (AQMS)</t>
+  </si>
+  <si>
+    <t>DOCUMENT SCANNER (FOR PASSPORT)</t>
+  </si>
+  <si>
+    <t>MIRROR SCREEN AND STAND</t>
+  </si>
+  <si>
+    <t>GPS BARCODE SCANNER</t>
+  </si>
+  <si>
+    <t>VIDEO CONFERENCE SYSTEM UNTUK BILIK LATIHAN</t>
+  </si>
+  <si>
+    <t>SOLUSI OFFLINE MODUL</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION SWITCH 48 PORTS</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION SWITCH 24 PORTS</t>
+  </si>
+  <si>
+    <t>FIREWALL LARGE SIZE</t>
+  </si>
+  <si>
+    <t>FIREWALL MEDIUM SIZE</t>
+  </si>
+  <si>
+    <t>FIREWALL SMALL SIZE</t>
+  </si>
+  <si>
+    <t>INFRASTRUKTUR WIRELESS</t>
+  </si>
+  <si>
+    <t>LAN POINT</t>
+  </si>
+  <si>
+    <t>CABLING FIBRE(SINGLE MODE/MULTI MODE)</t>
+  </si>
+  <si>
+    <t>BIOMETRIC ENROLMENT DEVICES (ALL IN ONE UNIT FOR FP, FACIAL &amp; IRIS)- (MODUL PTD)</t>
+  </si>
+  <si>
+    <t>BIOMETRIC ENROLMENT DEVICES (ALL IN ONE UNIT FOR FP, FACIAL &amp; IRIS)- (MODUL VPP), (MODUL PPA), (MODUL ESD), (MODUL ENF) DAN (MODUL PDT)</t>
+  </si>
+  <si>
+    <t>BIOMETRIC ENROLMENT DEVICES (ALL IN ONE UNIT FOR FP, FACIAL &amp; IRIS)- (MODUL IBC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERALATAN KHAS                                              </t>
+  </si>
+  <si>
+    <t>EGATE PEJALAN KAKI</t>
+  </si>
+  <si>
+    <t>PENDAWAIAN</t>
+  </si>
+  <si>
+    <t>API / INTEGRASI</t>
+  </si>
+  <si>
+    <t>EBIKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIOSK </t>
+  </si>
+  <si>
+    <t>MOBILE ENROLMENT UNIT</t>
+  </si>
+  <si>
+    <t>PERALATAN BUKAN ICT</t>
+  </si>
+  <si>
+    <t>UNINTERRUPTIBLE POWER SUPPLY (UPS)</t>
+  </si>
+  <si>
+    <t>HD CCTV WITH HUMAN HEAT DETECTOR AND PARAMETER DETECTION</t>
+  </si>
+  <si>
+    <t>HANDHELD METAL DETECTOR</t>
+  </si>
+  <si>
+    <t>GENSET</t>
+  </si>
+  <si>
+    <t>AIRCOND 1.5 HP (BILIK KAWALAN)</t>
+  </si>
+  <si>
+    <t>DOCUMENT EXAMINATION CENTRE (DEC)</t>
+  </si>
+  <si>
+    <t>FORENSIC DOCUMENT WORKSTATION</t>
+  </si>
+  <si>
+    <t>FINGERPRINT FUMING CABINETS</t>
+  </si>
+  <si>
+    <t>FINGERPRINT IMAGING WORKSTATION</t>
+  </si>
+  <si>
+    <t>SUB DB (COUNTER &amp; BACK OFFICE)</t>
+  </si>
+  <si>
+    <t>SUB DB (SERVER ROOM)</t>
+  </si>
+  <si>
+    <t>ELECTRICAL POINT</t>
+  </si>
+  <si>
+    <t>RANGKAIAN DAN KESELAMATAN CAWANGAN</t>
+  </si>
+  <si>
+    <t>PERALATAN KHAS</t>
+  </si>
+  <si>
+    <t>EGATE</t>
+  </si>
+  <si>
+    <t>MASALAH MEKANIKAL PERALATAN EBIKE / EGATE</t>
+  </si>
+  <si>
+    <t>PINTU / PALANG TIDAK BOLEH DIBUKA / DITUTUP</t>
+  </si>
+  <si>
+    <t>KAMERA TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>KOD QR TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIADA PAPARAN APLIKASI EGATE/EBIKE PADA SKRIN </t>
+  </si>
+  <si>
+    <t>LAMPU LED TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>TIADA PAPARAN HOLOGRAFIK DI PINTU MASUK / KELUAR</t>
+  </si>
+  <si>
+    <t>BUZZER BERBUNYI TANPA HENTI</t>
+  </si>
+  <si>
+    <t>KABEL ELEKTRIK / SIGNAL TERPUTUS / TIDAK BERHUBUNG</t>
+  </si>
+  <si>
+    <t>KABEL UTP TERPUTUS / TIDAK BERHUBUNG</t>
+  </si>
+  <si>
+    <t>SAMBUNGAN KE DATA CENTER BERMASALAH</t>
+  </si>
+  <si>
+    <t>SWITCH RANGKAIAN DI BILIK SERVER TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>SAMBUNGAN KE API HTP / NEXTG BERMASALAH</t>
+  </si>
+  <si>
+    <t>RALAT PADA DATA PENGEMBARA</t>
+  </si>
+  <si>
+    <t>APLIKASI EGATE TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>API HTP / NEXTG BERMASALAH</t>
+  </si>
+  <si>
+    <t>PC MINICC TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>INTERCOM KIOSK / MINICC TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>SWITCH RANGKAIAN DI MINICC TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>SWITCH RANGKAIAN DI COMMAND CENTER TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>SAMBUNGAN KE API HTP BERMASALAH</t>
+  </si>
+  <si>
+    <t>APLIKASI EBIKE TIDAK BERFUNGSI</t>
+  </si>
+  <si>
+    <t>API HTP BERMASALAH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +827,32 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +877,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -252,11 +937,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -273,6 +995,93 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,11 +1394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,8 +1822,1857 @@
         <v>39</v>
       </c>
     </row>
+    <row r="53" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A149" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B201" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A204" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B218" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B220" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B239" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B240" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B241" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B242" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B243" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B244" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B246" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B247" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B248" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B249" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B250" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B251" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B252" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B253" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B254" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B256" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B257" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B258" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B259" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B260" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B261" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B262" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B263" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B264" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B265" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B266" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B267" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B268" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B269" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B270" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B271" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B272" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B273" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B274" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B275" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B276" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B277" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B278" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B280" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B281" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B282" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B283" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/category.xlsx
+++ b/database/seeders/excel/category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA129EF2-1D1B-4799-A695-0E519901FEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D6C56A-7B7C-4245-BDCC-5D499CE4055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,25 +795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -871,294 +853,67 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,2088 +1227,1896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A290" sqref="A236:XFD290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.77734375" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="81.77734375" customWidth="1"/>
+    <col min="4" max="4" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+    <row r="53" spans="1:2" ht="23" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="35" t="s">
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="39" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="39" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="39" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="39" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="39" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="39" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="39" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="39" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="39" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="39" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="40" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="43" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="43" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="43" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="43" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="43" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="43" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="43" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="43" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="43" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="43" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="45" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="47" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="47" t="s">
+      <c r="B81" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="47" t="s">
+      <c r="B82" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="47" t="s">
+      <c r="B83" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="47" t="s">
+      <c r="B84" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B85" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="47" t="s">
+      <c r="B85" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="47" t="s">
+      <c r="B86" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B87" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="47" t="s">
+      <c r="B87" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="48" t="s">
+      <c r="B88" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B89" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="48" t="s">
+      <c r="B89" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="48" t="s">
+      <c r="B90" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B91" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="s">
+      <c r="B91" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="48" t="s">
+      <c r="B92" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B93" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="48" t="s">
+      <c r="B93" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B94" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="48" t="s">
+      <c r="B94" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B95" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="s">
+      <c r="B95" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B96" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="48" t="s">
+      <c r="B96" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B97" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="48" t="s">
+      <c r="B97" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="48" t="s">
+      <c r="B98" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B99" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="48" t="s">
+      <c r="B99" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B100" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="48" t="s">
+      <c r="B100" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="48" t="s">
+      <c r="B101" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B102" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="48" t="s">
+      <c r="B102" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="48" t="s">
+      <c r="B103" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B104" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="48" t="s">
+      <c r="B104" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B105" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="48" t="s">
+      <c r="B105" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="48" t="s">
+      <c r="B106" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="48" t="s">
+      <c r="B107" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="48" t="s">
+      <c r="B108" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="48" t="s">
+      <c r="B109" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B110" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="48" t="s">
+      <c r="B110" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B111" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="48" t="s">
+      <c r="B111" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="48" t="s">
+      <c r="B112" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="48" t="s">
+      <c r="B113" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B114" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="48" t="s">
+      <c r="B114" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="48" t="s">
+      <c r="B115" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B116" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="48" t="s">
+      <c r="B116" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="48" t="s">
+      <c r="B117" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B118" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="48" t="s">
+      <c r="B118" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B119" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="48" t="s">
+      <c r="B119" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B120" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="48" t="s">
+      <c r="B120" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="48" t="s">
+      <c r="B121" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B122" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="48" t="s">
+      <c r="B122" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="48" t="s">
+      <c r="B123" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B124" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="48" t="s">
+      <c r="B124" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B125" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="48" t="s">
+      <c r="B125" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B126" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="48" t="s">
+      <c r="B126" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B127" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="48" t="s">
+      <c r="B127" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B128" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="48" t="s">
+      <c r="B128" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B129" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="48" t="s">
+      <c r="B129" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="48" t="s">
+      <c r="B130" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B131" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="48" t="s">
+      <c r="B131" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="48" t="s">
+      <c r="B132" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="48" t="s">
+      <c r="B133" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B134" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="48" t="s">
+      <c r="B134" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B135" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="48" t="s">
+      <c r="B135" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B136" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="48" t="s">
+      <c r="B136" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B137" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="48" t="s">
+      <c r="B137" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B138" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="48" t="s">
+      <c r="B138" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B139" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="48" t="s">
+      <c r="B139" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B140" s="46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A141" s="49" t="s">
+      <c r="B140" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B141" s="50" t="s">
+      <c r="B141" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A142" s="51" t="s">
+    <row r="142" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="52" t="s">
+      <c r="B142" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="53" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B143" s="54" t="s">
+      <c r="B143" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="53" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B144" s="54" t="s">
+      <c r="B144" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="53" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B145" s="54" t="s">
+      <c r="B145" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="53" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B146" s="54" t="s">
+      <c r="B146" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="53" t="s">
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A147" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B147" s="54" t="s">
+      <c r="B147" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="53" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B148" s="54" t="s">
+      <c r="B148" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="53" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B149" s="54" t="s">
+      <c r="B149" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="53" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B150" s="54" t="s">
+      <c r="B150" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="53" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B151" s="54" t="s">
+      <c r="B151" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="53" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B152" s="54" t="s">
+      <c r="B152" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="53" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B153" s="54" t="s">
+      <c r="B153" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="53" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B154" s="54" t="s">
+      <c r="B154" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A155" s="55" t="s">
+    <row r="155" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B155" s="56" t="s">
+      <c r="B155" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="59" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B156" s="57" t="s">
+      <c r="B156" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="59" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B157" s="57" t="s">
+      <c r="B157" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="59" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B158" s="57" t="s">
+      <c r="B158" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="59" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B159" s="57" t="s">
+      <c r="B159" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="58" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B160" s="57" t="s">
+      <c r="B160" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="59" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B161" s="57" t="s">
+      <c r="B161" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="59" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B162" s="57" t="s">
+      <c r="B162" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="59" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B163" s="57" t="s">
+      <c r="B163" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="59" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B164" s="57" t="s">
+      <c r="B164" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="59" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B165" s="57" t="s">
+      <c r="B165" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="59" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B166" s="57" t="s">
+      <c r="B166" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="59" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B167" s="57" t="s">
+      <c r="B167" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="59" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B168" s="57" t="s">
+      <c r="B168" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A169" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B169" s="62" t="s">
+    <row r="169" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A170" s="61" t="s">
+    <row r="170" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B170" s="62" t="s">
+      <c r="B170" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A171" s="63" t="s">
+    <row r="171" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A171" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B171" s="64" t="s">
+      <c r="B171" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B172" s="66" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B172" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="69" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B173" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="69" t="s">
+      <c r="B173" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B174" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="70" t="s">
+      <c r="B174" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B175" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="67" t="s">
+      <c r="B175" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B176" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="67" t="s">
+      <c r="B176" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B177" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="67" t="s">
+      <c r="B177" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B178" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="67" t="s">
+      <c r="B178" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B179" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="67" t="s">
+      <c r="B179" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B180" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="67" t="s">
+      <c r="B180" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B181" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="67" t="s">
+      <c r="B181" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B182" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="67" t="s">
+      <c r="B182" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B183" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="67" t="s">
+      <c r="B183" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B184" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="67" t="s">
+      <c r="B184" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B185" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="67" t="s">
+      <c r="B185" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B186" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="67" t="s">
+      <c r="B186" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B187" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="67" t="s">
+      <c r="B187" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B188" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="67" t="s">
+      <c r="B188" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B189" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="67" t="s">
+      <c r="B189" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B190" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="67" t="s">
+      <c r="B190" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B191" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="67" t="s">
+      <c r="B191" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B192" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="71" t="s">
+      <c r="B192" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B193" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="67" t="s">
+      <c r="B193" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B194" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="67" t="s">
+      <c r="B194" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B195" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="67" t="s">
+      <c r="B195" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B196" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="67" t="s">
+      <c r="B196" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B197" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="67" t="s">
+      <c r="B197" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B198" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="67" t="s">
+      <c r="B198" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B199" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="71" t="s">
+      <c r="B199" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B200" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="71" t="s">
+      <c r="B200" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B201" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="72" t="s">
+      <c r="B201" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A202" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B202" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A203" s="72" t="s">
+      <c r="B202" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A203" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B203" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="72" t="s">
+      <c r="B203" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A204" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B204" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="73" t="s">
+      <c r="B204" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B205" s="74" t="s">
+      <c r="B205" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="76" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B206" s="75" t="s">
+      <c r="B206" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="77" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B207" s="78" t="s">
+      <c r="B207" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="77" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B208" s="79" t="s">
+      <c r="B208" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="77" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B209" s="79" t="s">
+      <c r="B209" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="77" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B210" s="79" t="s">
+      <c r="B210" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="77" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B211" s="79" t="s">
+      <c r="B211" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="80" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B212" s="81" t="s">
+      <c r="B212" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="83" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B213" s="82" t="s">
+      <c r="B213" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="83" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B214" s="82" t="s">
+      <c r="B214" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="83" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B215" s="82" t="s">
+      <c r="B215" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="83" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B216" s="82" t="s">
+      <c r="B216" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="83" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B217" s="82" t="s">
+      <c r="B217" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="84" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B218" s="86" t="s">
+      <c r="B218" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="85" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B219" s="87" t="s">
+      <c r="B219" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="88" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B220" s="89" t="s">
+      <c r="B220" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="90" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B221" s="93" t="s">
+      <c r="B221" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A222" s="92" t="s">
+    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A222" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B222" s="93" t="s">
+      <c r="B222" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="90" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B223" s="93" t="s">
+      <c r="B223" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="91" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B224" s="93" t="s">
+      <c r="B224" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="90" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B225" s="93" t="s">
+      <c r="B225" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="90" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B226" s="93" t="s">
+      <c r="B226" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="90" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B227" s="93" t="s">
+      <c r="B227" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="90" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B228" s="93" t="s">
+      <c r="B228" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="90" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B229" s="93" t="s">
+      <c r="B229" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="90" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B230" s="93" t="s">
+      <c r="B230" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="90" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B231" s="93" t="s">
+      <c r="B231" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="90" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B232" s="93" t="s">
+      <c r="B232" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="94" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B233" s="95" t="s">
+      <c r="B233" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="B234" s="95" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B234" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="94" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B235" s="95" t="s">
+      <c r="B235" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="2"/>
-      <c r="B236" s="95"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="3"/>
-      <c r="B237" s="1"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="4"/>
-      <c r="B240" s="3"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="4"/>
-      <c r="B241" s="3"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="4"/>
-      <c r="B242" s="3"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="4"/>
-      <c r="B243" s="3"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="4"/>
-      <c r="B244" s="3"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="4"/>
-      <c r="B245" s="3"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="4"/>
-      <c r="B246" s="3"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="4"/>
-      <c r="B247" s="3"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="4"/>
-      <c r="B249" s="3"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="4"/>
-      <c r="B251" s="3"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="4"/>
-      <c r="B252" s="3"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="4"/>
-      <c r="B253" s="3"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="4"/>
-      <c r="B254" s="3"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="4"/>
-      <c r="B256" s="3"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="5"/>
-      <c r="B257" s="3"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="6"/>
-      <c r="B258" s="3"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="7"/>
-      <c r="B259" s="6"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="8"/>
-      <c r="B260" s="3"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="9"/>
-      <c r="B261" s="8"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="10"/>
-      <c r="B262" s="9"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="10"/>
-      <c r="B263" s="9"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="10"/>
-      <c r="B264" s="9"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="10"/>
-      <c r="B265" s="9"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="10"/>
-      <c r="B266" s="9"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="10"/>
-      <c r="B267" s="9"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="10"/>
-      <c r="B268" s="9"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="10"/>
-      <c r="B269" s="9"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="8"/>
-      <c r="B273" s="8"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="8"/>
-      <c r="B279" s="8"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
